--- a/template/contract/land/売買契約書【土地・即決和解なし・実測（有効）・不可分なし・等価交換なし】.xlsx
+++ b/template/contract/land/売買契約書【土地・即決和解なし・実測（有効）・不可分なし・等価交換なし】.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\contract\land\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\contract\land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2C72B3-2F22-46F5-81CC-1A8F5E6C54D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F51C73-A54E-42FA-BC53-184EB394726A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
   </bookViews>
   <sheets>
     <sheet name="売買契約書" sheetId="2" r:id="rId1"/>
@@ -803,10 +803,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$specialTerms8$　　  ６　甲は、第４条記載の売買代金支払の時期までに、相続登記を完了させるものとする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　　　　　　　　　　　　　　　　</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -927,24 +923,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$specialTerms7_start$　　  ６　末尾１記載の未登記建物については、第６条記載の所有者移転時までに甲の責任におい</t>
+    <t>　　その写しを甲が保有する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　以上、本契約締結の証として本書１通を作成し、甲及び乙は各自記名捺印の上、乙が本書を、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　異が１㎡以上ある場合は、３．３㎡当たり$setlementPrice$万円の割合にて第３条に定める売買</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　１　本契約は実測による売買とする。なお、想定有効宅地面積と実測後の有効宅地面積の差</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$specialTerms8$　　  ６　甲は、第６条記載の所有権移転時までに、相続登記を完了させるものとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$specialTerms7_start$　　  ６　末尾１記載の未登記建物については、第６条記載の所有権移転時までに甲の責任におい</t>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>　　その写しを甲が保有する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　以上、本契約締結の証として本書１通を作成し、甲及び乙は各自記名捺印の上、乙が本書を、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　異が１㎡以上ある場合は、３．３㎡当たり$setlementPrice$万円の割合にて第３条に定める売買</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　１　本契約は実測による売買とする。なお、想定有効宅地面積と実測後の有効宅地面積の差</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1413,1131 +1413,1136 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="77" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="16"/>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="11"/>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="11"/>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="11"/>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="11"/>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="11"/>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="17"/>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A32" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A33" s="17"/>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A41" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A44" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A45" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A46" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A47" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A49" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A51" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A52" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A53" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A54" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A55" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A56" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A57" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A58" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A63" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A65" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A66" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A67" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A68" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A69" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A70" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A71" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A72" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A73" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A74" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A77" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A78" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A79" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A80" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A81" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A82" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A83" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A84" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A85" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A86" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A87" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A88" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A89" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A90" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A91" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A92" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A93" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A94" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A95" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A96" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A97" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A98" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A99" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A100" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A101" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A102" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A103" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A105" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A106" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A107" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A108" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A109" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A110" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A111" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A112" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A113" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A114" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A115" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A116" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A117" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A118" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A119" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A120" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A121" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A122" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A123" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A124" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A125" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A126" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A127" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A128" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A129" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A130" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A131" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A132" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A133" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A134" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A135" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A136" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A136" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A137" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A138" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A139" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A140" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A141" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A142" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A143" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A144" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A145" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A146" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A147" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A147" s="3" t="s">
+    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A148" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A149" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A150" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A151" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A152" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A153" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A154" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A155" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A156" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A157" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A158" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A159" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A160" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A161" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A162" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A163" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A164" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A165" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A166" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A167" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A168" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A169" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A170" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="171" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A171" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A172" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A173" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A174" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A175" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A176" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A177" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A178" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A179" s="5"/>
     </row>
-    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A180" s="5"/>
     </row>
-    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A181" s="5"/>
     </row>
-    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A182" s="5"/>
     </row>
-    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A183" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A184" s="5"/>
     </row>
-    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A187" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A188" s="15"/>
     </row>
-    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A189" s="15"/>
     </row>
-    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A190" s="15"/>
     </row>
-    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A191" s="5"/>
     </row>
-    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A192" s="5"/>
     </row>
-    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A193" s="5"/>
     </row>
-    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A194" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A195" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A196" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A201" s="5"/>
     </row>
-    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A202" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A203" s="6"/>
     </row>
-    <row r="204" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A204" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A205" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A206" s="12"/>
     </row>
-    <row r="207" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A207" s="12"/>
     </row>
-    <row r="208" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A208" s="12"/>
     </row>
-    <row r="209" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A209" s="12"/>
     </row>
-    <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A210" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A211" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A212" s="13"/>
     </row>
-    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A213" s="13"/>
     </row>
-    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A214" s="13"/>
     </row>
-    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A215" s="13"/>
     </row>
-    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A216" s="13"/>
     </row>
-    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A217" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A218" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A219" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A220" s="13"/>
     </row>
-    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A221" s="13"/>
     </row>
-    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A222" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A223" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A224" s="13"/>
     </row>
-    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A225" s="13"/>
     </row>
-    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A226" s="13"/>
     </row>
-    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A227" s="13"/>
     </row>
-    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A228" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A229" s="10"/>
     </row>
-    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A230" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A231" s="6"/>
     </row>
-    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A232" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A233" s="6"/>
     </row>
-    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A234" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A235" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A236" s="13"/>
     </row>
-    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A237" s="13"/>
     </row>
-    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A238" s="13"/>
     </row>
-    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A239" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A240" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A241" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A242" s="13"/>
     </row>
-    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A243" s="13"/>
     </row>
-    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A244" s="13"/>
     </row>
-    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A245" s="13"/>
     </row>
-    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A246" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A247" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A248" s="13"/>
     </row>
-    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A249" s="13"/>
     </row>
-    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A250" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A251" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A252" s="13"/>
     </row>
-    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A253" s="13"/>
     </row>
-    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A254" s="13"/>
     </row>
-    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A255" s="6"/>
     </row>
-    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A256" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A257" s="6"/>
     </row>
-    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A258" s="6"/>
     </row>
-    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A259" s="6"/>
     </row>
-    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A260" s="6"/>
     </row>
-    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A261" s="6"/>
     </row>
-    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A262" s="6"/>
     </row>
-    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A263" s="6"/>
     </row>
-    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A264" s="6"/>
     </row>
-    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A265" s="6"/>
     </row>
-    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A266" s="6"/>
     </row>
-    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A267" s="6"/>
     </row>
-    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A268" s="7"/>
     </row>
-    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A269" s="7"/>
     </row>
-    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A270" s="7"/>
     </row>
-    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A271" s="7"/>
     </row>
-    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A272" s="7"/>
     </row>
-    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A273" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A274" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A275" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A276" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A277" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A278" s="7"/>
     </row>
-    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A279" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A280" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A281" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A282" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A283" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A284" s="6" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A223:A227"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="A251:A254"/>
     <mergeCell ref="A219:A221"/>
     <mergeCell ref="A187:A190"/>
     <mergeCell ref="A10:A11"/>
@@ -2545,11 +2550,6 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A205:A209"/>
     <mergeCell ref="A211:A216"/>
-    <mergeCell ref="A223:A227"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="A251:A254"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2570,1178 +2570,1178 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="77" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="16"/>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="17"/>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A32" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A33" s="17"/>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A41" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A44" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A45" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A47" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A50" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A54" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A55" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A56" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A57" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A58" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A60" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A61" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A62" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A63" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A64" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A65" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A67" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A68" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A70" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A71" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A72" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A73" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A76" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A77" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A79" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A80" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A81" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A82" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A83" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A84" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A85" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A86" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A87" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A88" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A89" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A90" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A91" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A92" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A93" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A94" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A95" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A96" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A97" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A98" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A99" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A100" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A101" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A102" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A103" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A104" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A105" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A107" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A108" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A109" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A110" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A111" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A112" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A113" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A114" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A115" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A116" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A117" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A118" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A119" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A120" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A121" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A122" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A123" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A124" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A125" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A126" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A127" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A128" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A129" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A130" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A131" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A132" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A133" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A134" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A135" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A136" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A137" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A138" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A139" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A140" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A141" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A142" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A143" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A144" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A145" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A146" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A147" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A148" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A149" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A150" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A151" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A152" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A153" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A154" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A155" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A156" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A157" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A158" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A159" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A160" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A161" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A162" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A163" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A164" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A165" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A166" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A167" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A168" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A169" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A170" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A171" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A172" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="173" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A173" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="174" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A174" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A175" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="176" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A176" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="177" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A177" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="178" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A178" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A179" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A180" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A181" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A182" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A183" s="5"/>
     </row>
-    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A184" s="5"/>
     </row>
-    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A185" s="5"/>
     </row>
-    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A186" s="5"/>
     </row>
-    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A187" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A188" s="5"/>
     </row>
-    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A191" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A192" s="5"/>
     </row>
-    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A193" s="5"/>
     </row>
-    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A194" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A195" s="5"/>
     </row>
-    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A196" s="5"/>
     </row>
-    <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A197" s="5"/>
     </row>
-    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A198" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A199" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A200" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A205" s="5"/>
     </row>
-    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A206" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A207" s="6"/>
     </row>
-    <row r="208" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A208" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A209" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A210" s="12"/>
     </row>
-    <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A211" s="12"/>
     </row>
-    <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A212" s="12"/>
     </row>
-    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A213" s="12"/>
     </row>
-    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A214" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A215" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A216" s="13"/>
     </row>
-    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A217" s="13"/>
     </row>
-    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A218" s="13"/>
     </row>
-    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A219" s="13"/>
     </row>
-    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A220" s="13"/>
     </row>
-    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A221" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A222" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A223" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A224" s="13"/>
     </row>
-    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A225" s="13"/>
     </row>
-    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A226" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A227" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A228" s="13"/>
     </row>
-    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A229" s="13"/>
     </row>
-    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A230" s="13"/>
     </row>
-    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A231" s="13"/>
     </row>
-    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A232" s="13"/>
     </row>
-    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A233" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A234" s="9"/>
     </row>
-    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A235" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A236" s="6"/>
     </row>
-    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A237" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A238" s="6"/>
     </row>
-    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A239" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A240" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A241" s="13"/>
     </row>
-    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A242" s="13"/>
     </row>
-    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A243" s="13"/>
     </row>
-    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A244" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A245" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A246" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A247" s="13"/>
     </row>
-    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A248" s="13"/>
     </row>
-    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A249" s="13"/>
     </row>
-    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A250" s="13"/>
     </row>
-    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A251" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A252" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A253" s="13"/>
     </row>
-    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A254" s="13"/>
     </row>
-    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A255" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A256" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A257" s="13"/>
     </row>
-    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A258" s="13"/>
     </row>
-    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A259" s="13"/>
     </row>
-    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A260" s="13"/>
     </row>
-    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A261" s="13"/>
     </row>
-    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A262" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A263" s="6"/>
     </row>
-    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A264" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A265" s="6"/>
     </row>
-    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A266" s="6"/>
     </row>
-    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A267" s="6"/>
     </row>
-    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A268" s="6"/>
     </row>
-    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A269" s="6"/>
     </row>
-    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A270" s="6"/>
     </row>
-    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A271" s="6"/>
     </row>
-    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A272" s="6"/>
     </row>
-    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A273" s="6"/>
     </row>
-    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A274" s="6"/>
     </row>
-    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A276" s="7"/>
     </row>
-    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A277" s="7"/>
     </row>
-    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A278" s="7"/>
     </row>
-    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A279" s="7"/>
     </row>
-    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A280" s="7"/>
     </row>
-    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A281" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A282" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A283" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A284" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A285" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A286" s="7"/>
     </row>
-    <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A287" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A288" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A289" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A290" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A291" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A292" s="6" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="A215:A220"/>
     <mergeCell ref="A256:A261"/>
     <mergeCell ref="A223:A225"/>
     <mergeCell ref="A227:A232"/>
     <mergeCell ref="A240:A243"/>
     <mergeCell ref="A246:A250"/>
     <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="A215:A220"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/template/contract/land/売買契約書【土地・即決和解なし・実測（有効）・不可分なし・等価交換なし】.xlsx
+++ b/template/contract/land/売買契約書【土地・即決和解なし・実測（有効）・不可分なし・等価交換なし】.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\contract\land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F51C73-A54E-42FA-BC53-184EB394726A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9808B1-5CEC-4604-B5AF-4A1A927A5200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'土地・即決なし・実測（有効）・不可分なし・等価交換なし'!$A$1:$A$293</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">売買契約書!$A$1:$A$285</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -919,10 +919,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　  　て建物登記を完了させるものとする。なお、登記手続きに要する費用は乙の負担とする。$specialTerms7_end$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　その写しを甲が保有する。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -945,6 +941,10 @@
   <si>
     <t>$specialTerms7_start$　　  ６　末尾１記載の未登記建物については、第６条記載の所有権移転時までに甲の責任におい</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>　　  　て建物登記を完了させるものとする。なお、登記手続きに要する費用は甲の負担とする。$specialTerms7_end$</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1545,12 +1545,12 @@
     </row>
     <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A53" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A54" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2120,17 +2120,17 @@
     </row>
     <row r="171" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A171" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="172" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A172" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A173" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="174" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2150,12 +2150,12 @@
     </row>
     <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A177" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A178" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2538,11 +2538,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A223:A227"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="A251:A254"/>
     <mergeCell ref="A219:A221"/>
     <mergeCell ref="A187:A190"/>
     <mergeCell ref="A10:A11"/>
@@ -2550,6 +2545,11 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A205:A209"/>
     <mergeCell ref="A211:A216"/>
+    <mergeCell ref="A223:A227"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="A251:A254"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3731,17 +3731,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="A215:A220"/>
     <mergeCell ref="A256:A261"/>
     <mergeCell ref="A223:A225"/>
     <mergeCell ref="A227:A232"/>
     <mergeCell ref="A240:A243"/>
     <mergeCell ref="A246:A250"/>
     <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="A215:A220"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/template/contract/land/売買契約書【土地・即決和解なし・実測（有効）・不可分なし・等価交換なし】.xlsx
+++ b/template/contract/land/売買契約書【土地・即決和解なし・実測（有効）・不可分なし・等価交換なし】.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\contract\land\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\06_VBA\変換結果\20231219\contract\land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9808B1-5CEC-4604-B5AF-4A1A927A5200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E97437-CBE8-4125-843A-0A0560231476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
   </bookViews>
@@ -31,12 +31,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -839,10 +833,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">             　　        買  主：　　東京都中央区銀座四丁目１０番１０号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　売主：$contractorName$と買主：株式会社メトロス開発（以下「乙」という。）とは、末尾１記載の土地（以下「本物件」という。）に関し、以下のとおり売買契約（以下「本契約」という。）を締結した。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -944,6 +934,10 @@
   </si>
   <si>
     <t>　　  　て建物登記を完了させるものとする。なお、登記手続きに要する費用は甲の負担とする。$specialTerms7_end$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             　　        買  主：　　東京都中央区銀座三丁目９番７号</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1039,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,15 +1060,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
@@ -1429,12 +1414,12 @@
     <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="16"/>
+      <c r="A11" s="13"/>
     </row>
     <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1447,40 +1432,40 @@
     <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="11"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="11"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="11"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="11"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="11"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="11"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="14" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="17"/>
+      <c r="A29" s="14"/>
     </row>
     <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="17"/>
+      <c r="A33" s="14"/>
     </row>
     <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1495,7 +1480,7 @@
     </row>
     <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1515,12 +1500,12 @@
     </row>
     <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A47" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A48" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1545,12 +1530,12 @@
     </row>
     <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A54" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1570,27 +1555,27 @@
     </row>
     <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A58" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A59" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A60" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A61" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A62" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1605,7 +1590,7 @@
     </row>
     <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A66" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1660,12 +1645,12 @@
     </row>
     <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A78" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A79" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1755,12 +1740,12 @@
     </row>
     <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A97" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A98" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1940,12 +1925,12 @@
     </row>
     <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A135" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A136" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1995,17 +1980,17 @@
     </row>
     <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A146" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A147" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A148" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2120,22 +2105,22 @@
     </row>
     <row r="171" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A171" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A172" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A173" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="174" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A174" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2150,12 +2135,12 @@
     </row>
     <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A177" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A178" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2179,18 +2164,18 @@
       <c r="A184" s="5"/>
     </row>
     <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A187" s="14" t="s">
+      <c r="A187" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A188" s="15"/>
+      <c r="A188" s="12"/>
     </row>
     <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A189" s="15"/>
+      <c r="A189" s="12"/>
     </row>
     <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A190" s="15"/>
+      <c r="A190" s="12"/>
     </row>
     <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A191" s="5"/>
@@ -2203,7 +2188,7 @@
     </row>
     <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A194" s="5" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2233,49 +2218,49 @@
       </c>
     </row>
     <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A205" s="12" t="s">
+      <c r="A205" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A206" s="12"/>
+      <c r="A206" s="9"/>
     </row>
     <row r="207" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A207" s="12"/>
+      <c r="A207" s="9"/>
     </row>
     <row r="208" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A208" s="12"/>
+      <c r="A208" s="9"/>
     </row>
     <row r="209" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A209" s="12"/>
+      <c r="A209" s="9"/>
     </row>
     <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A210" s="10" t="s">
+      <c r="A210" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A211" s="12" t="s">
+      <c r="A211" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A212" s="13"/>
+      <c r="A212" s="10"/>
     </row>
     <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A213" s="13"/>
+      <c r="A213" s="10"/>
     </row>
     <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A214" s="13"/>
+      <c r="A214" s="10"/>
     </row>
     <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A215" s="13"/>
+      <c r="A215" s="10"/>
     </row>
     <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A216" s="13"/>
+      <c r="A216" s="10"/>
     </row>
     <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A217" s="10" t="s">
+      <c r="A217" s="8" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2285,15 +2270,15 @@
       </c>
     </row>
     <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A219" s="12" t="s">
+      <c r="A219" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A220" s="13"/>
+      <c r="A220" s="10"/>
     </row>
     <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A221" s="13"/>
+      <c r="A221" s="10"/>
     </row>
     <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A222" s="6" t="s">
@@ -2301,29 +2286,29 @@
       </c>
     </row>
     <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A223" s="12" t="s">
+      <c r="A223" s="9" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A224" s="13"/>
+      <c r="A224" s="10"/>
     </row>
     <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A225" s="13"/>
+      <c r="A225" s="10"/>
     </row>
     <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A226" s="13"/>
+      <c r="A226" s="10"/>
     </row>
     <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A227" s="13"/>
+      <c r="A227" s="10"/>
     </row>
     <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A228" s="10" t="s">
+      <c r="A228" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A229" s="10"/>
+      <c r="A229" s="8"/>
     </row>
     <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A230" s="6" t="s">
@@ -2347,18 +2332,18 @@
       </c>
     </row>
     <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A235" s="12" t="s">
+      <c r="A235" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A236" s="13"/>
+      <c r="A236" s="10"/>
     </row>
     <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A237" s="13"/>
+      <c r="A237" s="10"/>
     </row>
     <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A238" s="13"/>
+      <c r="A238" s="10"/>
     </row>
     <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A239" s="6" t="s">
@@ -2371,21 +2356,21 @@
       </c>
     </row>
     <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A241" s="12" t="s">
+      <c r="A241" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A242" s="13"/>
+      <c r="A242" s="10"/>
     </row>
     <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A243" s="13"/>
+      <c r="A243" s="10"/>
     </row>
     <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A244" s="13"/>
+      <c r="A244" s="10"/>
     </row>
     <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A245" s="13"/>
+      <c r="A245" s="10"/>
     </row>
     <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A246" s="6" t="s">
@@ -2393,15 +2378,15 @@
       </c>
     </row>
     <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A247" s="12" t="s">
+      <c r="A247" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A248" s="13"/>
+      <c r="A248" s="10"/>
     </row>
     <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A249" s="13"/>
+      <c r="A249" s="10"/>
     </row>
     <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A250" s="6" t="s">
@@ -2409,18 +2394,18 @@
       </c>
     </row>
     <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A251" s="12" t="s">
+      <c r="A251" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A252" s="13"/>
+      <c r="A252" s="10"/>
     </row>
     <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A253" s="13"/>
+      <c r="A253" s="10"/>
     </row>
     <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A254" s="13"/>
+      <c r="A254" s="10"/>
     </row>
     <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A255" s="6"/>
@@ -2538,6 +2523,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A223:A227"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="A251:A254"/>
     <mergeCell ref="A219:A221"/>
     <mergeCell ref="A187:A190"/>
     <mergeCell ref="A10:A11"/>
@@ -2545,11 +2535,6 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A205:A209"/>
     <mergeCell ref="A211:A216"/>
-    <mergeCell ref="A223:A227"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="A251:A254"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2586,12 +2571,12 @@
     <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="16"/>
+      <c r="A11" s="13"/>
     </row>
     <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -2622,22 +2607,22 @@
       <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="17"/>
+      <c r="A29" s="14"/>
     </row>
     <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="17"/>
+      <c r="A33" s="14"/>
     </row>
     <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -3412,21 +3397,21 @@
       </c>
     </row>
     <row r="209" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A210" s="12"/>
+      <c r="A210" s="9"/>
     </row>
     <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A211" s="12"/>
+      <c r="A211" s="9"/>
     </row>
     <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A212" s="12"/>
+      <c r="A212" s="9"/>
     </row>
     <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A213" s="12"/>
+      <c r="A213" s="9"/>
     </row>
     <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A214" s="8" t="s">
@@ -3434,24 +3419,24 @@
       </c>
     </row>
     <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A215" s="12" t="s">
+      <c r="A215" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A216" s="13"/>
+      <c r="A216" s="10"/>
     </row>
     <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A217" s="13"/>
+      <c r="A217" s="10"/>
     </row>
     <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A218" s="13"/>
+      <c r="A218" s="10"/>
     </row>
     <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A219" s="13"/>
+      <c r="A219" s="10"/>
     </row>
     <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A220" s="13"/>
+      <c r="A220" s="10"/>
     </row>
     <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A221" s="8" t="s">
@@ -3464,15 +3449,15 @@
       </c>
     </row>
     <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A223" s="12" t="s">
+      <c r="A223" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A224" s="13"/>
+      <c r="A224" s="10"/>
     </row>
     <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A225" s="13"/>
+      <c r="A225" s="10"/>
     </row>
     <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A226" s="6" t="s">
@@ -3480,24 +3465,24 @@
       </c>
     </row>
     <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A227" s="12" t="s">
+      <c r="A227" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A228" s="13"/>
+      <c r="A228" s="10"/>
     </row>
     <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A229" s="13"/>
+      <c r="A229" s="10"/>
     </row>
     <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A230" s="13"/>
+      <c r="A230" s="10"/>
     </row>
     <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A231" s="13"/>
+      <c r="A231" s="10"/>
     </row>
     <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A232" s="13"/>
+      <c r="A232" s="10"/>
     </row>
     <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A233" s="8" t="s">
@@ -3505,7 +3490,7 @@
       </c>
     </row>
     <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A234" s="9"/>
+      <c r="A234" s="8"/>
     </row>
     <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A235" s="6" t="s">
@@ -3529,18 +3514,18 @@
       </c>
     </row>
     <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A240" s="12" t="s">
+      <c r="A240" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A241" s="13"/>
+      <c r="A241" s="10"/>
     </row>
     <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A242" s="13"/>
+      <c r="A242" s="10"/>
     </row>
     <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A243" s="13"/>
+      <c r="A243" s="10"/>
     </row>
     <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A244" s="6" t="s">
@@ -3553,21 +3538,21 @@
       </c>
     </row>
     <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A246" s="12" t="s">
+      <c r="A246" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A247" s="13"/>
+      <c r="A247" s="10"/>
     </row>
     <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A248" s="13"/>
+      <c r="A248" s="10"/>
     </row>
     <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A249" s="13"/>
+      <c r="A249" s="10"/>
     </row>
     <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A250" s="13"/>
+      <c r="A250" s="10"/>
     </row>
     <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A251" s="6" t="s">
@@ -3575,15 +3560,15 @@
       </c>
     </row>
     <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A252" s="12" t="s">
+      <c r="A252" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A253" s="13"/>
+      <c r="A253" s="10"/>
     </row>
     <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A254" s="13"/>
+      <c r="A254" s="10"/>
     </row>
     <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A255" s="6" t="s">
@@ -3591,24 +3576,24 @@
       </c>
     </row>
     <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A256" s="12" t="s">
+      <c r="A256" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A257" s="13"/>
+      <c r="A257" s="10"/>
     </row>
     <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A258" s="13"/>
+      <c r="A258" s="10"/>
     </row>
     <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A259" s="13"/>
+      <c r="A259" s="10"/>
     </row>
     <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A260" s="13"/>
+      <c r="A260" s="10"/>
     </row>
     <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A261" s="13"/>
+      <c r="A261" s="10"/>
     </row>
     <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A262" s="8" t="s">
@@ -3731,17 +3716,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="A215:A220"/>
     <mergeCell ref="A256:A261"/>
     <mergeCell ref="A223:A225"/>
     <mergeCell ref="A227:A232"/>
     <mergeCell ref="A240:A243"/>
     <mergeCell ref="A246:A250"/>
     <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="A215:A220"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/template/contract/land/売買契約書【土地・即決和解なし・実測（有効）・不可分なし・等価交換なし】.xlsx
+++ b/template/contract/land/売買契約書【土地・即決和解なし・実測（有効）・不可分なし・等価交換なし】.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\06_VBA\変換結果\20231219\contract\land\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\挿入済\land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E97437-CBE8-4125-843A-0A0560231476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BFAD6AE-D134-4430-AA4F-922D0C1A671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{74489141-FD4B-45C4-8A39-8B1C55570244}"/>
   </bookViews>
   <sheets>
     <sheet name="売買契約書" sheetId="2" r:id="rId1"/>
@@ -18,15 +18,15 @@
   </sheets>
   <definedNames>
     <definedName name="_Hlk487036390" localSheetId="1">'土地・即決なし・実測（有効）・不可分なし・等価交換なし'!$A$208</definedName>
-    <definedName name="_Hlk487036390" localSheetId="0">売買契約書!$A$204</definedName>
+    <definedName name="_Hlk487036390" localSheetId="0">売買契約書!$A$206</definedName>
     <definedName name="_Hlk487036877" localSheetId="1">'土地・即決なし・実測（有効）・不可分なし・等価交換なし'!#REF!</definedName>
     <definedName name="_Hlk487036877" localSheetId="0">売買契約書!#REF!</definedName>
     <definedName name="_Hlk487036942" localSheetId="1">'土地・即決なし・実測（有効）・不可分なし・等価交換なし'!$A$214</definedName>
-    <definedName name="_Hlk487036942" localSheetId="0">売買契約書!$A$210</definedName>
+    <definedName name="_Hlk487036942" localSheetId="0">売買契約書!$A$212</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'土地・即決なし・実測（有効）・不可分なし・等価交換なし'!$A$1:$A$293</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">売買契約書!$A$1:$A$285</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">売買契約書!$A$1:$A$287</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="233">
   <si>
     <t>不 動 産 売 買 契 約 書（案）</t>
     <phoneticPr fontId="1"/>
@@ -939,6 +939,12 @@
   <si>
     <t xml:space="preserve">             　　        買  主：　　東京都中央区銀座三丁目９番７号</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    以上、本契約締結の証として本契約書の電磁的記録を作成し、甲乙合意のうえ電子署名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    およびタイムスタンプを附したものを甲乙が各自保有するものとする。</t>
   </si>
 </sst>
 </file>
@@ -1394,1147 +1400,1158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634E5E2A-04DA-43D6-AF94-91C6A244994C}">
-  <dimension ref="A1:A284"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A286"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="77" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="3"/>
+    <col min="2" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="14"/>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="171" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="172" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="173" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="174" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A179" s="5"/>
-    </row>
-    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A180" s="5"/>
-    </row>
-    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A179" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A180" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="5"/>
     </row>
-    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="5"/>
     </row>
-    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A183" s="5" t="s">
+    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A183" s="5"/>
+    </row>
+    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A184" s="5"/>
+    </row>
+    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A185" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A184" s="5"/>
-    </row>
-    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A187" s="11" t="s">
+    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A186" s="5"/>
+    </row>
+    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A189" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A188" s="12"/>
-    </row>
-    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A189" s="12"/>
-    </row>
-    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="12"/>
     </row>
-    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A191" s="5"/>
-    </row>
-    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A192" s="5"/>
-    </row>
-    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A191" s="12"/>
+    </row>
+    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A192" s="12"/>
+    </row>
+    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="5"/>
     </row>
-    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A194" s="5" t="s">
+    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A194" s="5"/>
+    </row>
+    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A195" s="5"/>
+    </row>
+    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A196" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A195" s="5" t="s">
+    <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A197" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A196" s="5" t="s">
+    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A198" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A201" s="5"/>
-    </row>
-    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A202" s="6" t="s">
+    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A203" s="5"/>
+    </row>
+    <row r="204" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A204" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A203" s="6"/>
-    </row>
-    <row r="204" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A204" s="6" t="s">
+    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A205" s="6"/>
+    </row>
+    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A206" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A205" s="9" t="s">
+    <row r="207" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A207" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A206" s="9"/>
-    </row>
-    <row r="207" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A207" s="9"/>
-    </row>
-    <row r="208" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="9"/>
     </row>
-    <row r="209" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="9"/>
     </row>
-    <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A210" s="8" t="s">
+    <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A210" s="9"/>
+    </row>
+    <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A211" s="9"/>
+    </row>
+    <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A212" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A211" s="9" t="s">
+    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A213" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A212" s="10"/>
-    </row>
-    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A213" s="10"/>
-    </row>
-    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="10"/>
     </row>
-    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="10"/>
     </row>
-    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="10"/>
     </row>
-    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A217" s="8" t="s">
+    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A217" s="10"/>
+    </row>
+    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A218" s="10"/>
+    </row>
+    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A219" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A218" s="6" t="s">
+    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A220" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A219" s="9" t="s">
+    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A221" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A220" s="10"/>
-    </row>
-    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A221" s="10"/>
-    </row>
-    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A222" s="6" t="s">
+    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A222" s="10"/>
+    </row>
+    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A223" s="10"/>
+    </row>
+    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A224" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A223" s="9" t="s">
+    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A225" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A224" s="10"/>
-    </row>
-    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A225" s="10"/>
-    </row>
-    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="10"/>
     </row>
-    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="10"/>
     </row>
-    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A228" s="8" t="s">
+    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A228" s="10"/>
+    </row>
+    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A229" s="10"/>
+    </row>
+    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A230" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A229" s="8"/>
-    </row>
-    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A230" s="6" t="s">
+    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A231" s="8"/>
+    </row>
+    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A232" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A231" s="6"/>
-    </row>
-    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A232" s="6" t="s">
+    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A233" s="6"/>
+    </row>
+    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A234" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A233" s="6"/>
-    </row>
-    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A234" s="6" t="s">
+    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A235" s="6"/>
+    </row>
+    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A236" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A235" s="9" t="s">
+    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A237" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A236" s="10"/>
-    </row>
-    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A237" s="10"/>
-    </row>
-    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="10"/>
     </row>
-    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A239" s="6" t="s">
+    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A239" s="10"/>
+    </row>
+    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A240" s="10"/>
+    </row>
+    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A241" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A240" s="6" t="s">
+    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A242" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A241" s="9" t="s">
+    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A243" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A242" s="10"/>
-    </row>
-    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A243" s="10"/>
-    </row>
-    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="10"/>
     </row>
-    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="10"/>
     </row>
-    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A246" s="6" t="s">
+    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A246" s="10"/>
+    </row>
+    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A247" s="10"/>
+    </row>
+    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A248" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A247" s="9" t="s">
+    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A249" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A248" s="10"/>
-    </row>
-    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A249" s="10"/>
-    </row>
-    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A250" s="6" t="s">
+    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A250" s="10"/>
+    </row>
+    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A251" s="10"/>
+    </row>
+    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A252" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A251" s="9" t="s">
+    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A253" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A252" s="10"/>
-    </row>
-    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A253" s="10"/>
-    </row>
-    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="10"/>
     </row>
-    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A255" s="6"/>
-    </row>
-    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A256" s="6" t="s">
+    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A255" s="10"/>
+    </row>
+    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A256" s="10"/>
+    </row>
+    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A257" s="6"/>
+    </row>
+    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A258" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A257" s="6"/>
-    </row>
-    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A258" s="6"/>
-    </row>
-    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="6"/>
     </row>
-    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="6"/>
     </row>
-    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="6"/>
     </row>
-    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="6"/>
     </row>
-    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="6"/>
     </row>
-    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="6"/>
     </row>
-    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="6"/>
     </row>
-    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="6"/>
     </row>
-    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="6"/>
     </row>
-    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A268" s="7"/>
-    </row>
-    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A269" s="7"/>
-    </row>
-    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A268" s="6"/>
+    </row>
+    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A269" s="6"/>
+    </row>
+    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="7"/>
     </row>
-    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="7"/>
     </row>
-    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="7"/>
     </row>
-    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A273" s="6" t="s">
+    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A273" s="7"/>
+    </row>
+    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A274" s="7"/>
+    </row>
+    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A275" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A274" s="6" t="s">
+    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A276" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A275" s="6" t="s">
+    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A277" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A276" s="6" t="s">
+    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A278" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A277" s="6" t="s">
+    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A279" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A278" s="7"/>
-    </row>
-    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A279" s="6" t="s">
+    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A281" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A280" s="6" t="s">
+    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A282" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A281" s="6" t="s">
+    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A283" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A282" s="6" t="s">
+    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A284" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A283" s="6" t="s">
+    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A285" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A284" s="6" t="s">
+    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A286" s="6" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A223:A227"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="A251:A254"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="A187:A190"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="A189:A192"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="A211:A216"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="A213:A218"/>
+    <mergeCell ref="A225:A229"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A253:A256"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2544,1189 +2561,1190 @@
     <brk id="111" man="1"/>
     <brk id="148" man="1"/>
     <brk id="175" man="1"/>
-    <brk id="200" man="1"/>
+    <brk id="202" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70A8303-A456-41AF-8E52-1B33A3195F03}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A292"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="77" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="3"/>
+    <col min="2" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="14"/>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="173" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="174" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="176" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="177" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="178" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="5"/>
     </row>
-    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="5"/>
     </row>
-    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="5"/>
     </row>
-    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="5"/>
     </row>
-    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="5"/>
     </row>
-    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="5"/>
     </row>
-    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="5"/>
     </row>
-    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="5"/>
     </row>
-    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="5"/>
     </row>
-    <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="5"/>
     </row>
-    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="5"/>
     </row>
-    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="6"/>
     </row>
-    <row r="208" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="9"/>
     </row>
-    <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="9"/>
     </row>
-    <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="9"/>
     </row>
-    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="9"/>
     </row>
-    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="10"/>
     </row>
-    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="10"/>
     </row>
-    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="10"/>
     </row>
-    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="10"/>
     </row>
-    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="10"/>
     </row>
-    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="10"/>
     </row>
-    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="10"/>
     </row>
-    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="10"/>
     </row>
-    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="10"/>
     </row>
-    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="10"/>
     </row>
-    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="10"/>
     </row>
-    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="10"/>
     </row>
-    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="8"/>
     </row>
-    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="6"/>
     </row>
-    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="6"/>
     </row>
-    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="10"/>
     </row>
-    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="10"/>
     </row>
-    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="10"/>
     </row>
-    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="10"/>
     </row>
-    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="10"/>
     </row>
-    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="10"/>
     </row>
-    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="10"/>
     </row>
-    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="10"/>
     </row>
-    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="10"/>
     </row>
-    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="10"/>
     </row>
-    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="10"/>
     </row>
-    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="10"/>
     </row>
-    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="10"/>
     </row>
-    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="10"/>
     </row>
-    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="6"/>
     </row>
-    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="6"/>
     </row>
-    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="6"/>
     </row>
-    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="6"/>
     </row>
-    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="6"/>
     </row>
-    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="6"/>
     </row>
-    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="6"/>
     </row>
-    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="6"/>
     </row>
-    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="6"/>
     </row>
-    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="6"/>
     </row>
-    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="6"/>
     </row>
-    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="7"/>
     </row>
-    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="7"/>
     </row>
-    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="7"/>
     </row>
-    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="7"/>
     </row>
-    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="7"/>
     </row>
-    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="7"/>
     </row>
-    <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="6" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="A215:A220"/>
     <mergeCell ref="A256:A261"/>
     <mergeCell ref="A223:A225"/>
     <mergeCell ref="A227:A232"/>
     <mergeCell ref="A240:A243"/>
     <mergeCell ref="A246:A250"/>
     <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="A215:A220"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
